--- a/flows/work/.xlsx/发票自动化处理统计报表.xlsx
+++ b/flows/work/.xlsx/发票自动化处理统计报表.xlsx
@@ -1,59 +1,227 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\flows\work\.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51521E19-89B6-45BF-A319-6EDF4F47F2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB2524C-D995-46FE-BF0A-4137E17AC53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1380" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="发票数据详情" sheetId="1" r:id="rId1"/>
+    <sheet name="卖方数据详情" sheetId="2" r:id="rId2"/>
+    <sheet name="买方数据详情" sheetId="3" r:id="rId3"/>
+    <sheet name="交易关系汇总" sheetId="4" r:id="rId4"/>
+    <sheet name="发票审批状态汇总" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>统计信息</t>
-  </si>
-  <si>
-    <t>发票数量</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+  <si>
+    <t>发票号码</t>
+  </si>
+  <si>
+    <t>卖方</t>
+  </si>
+  <si>
+    <t>买方</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>交易时间</t>
+  </si>
+  <si>
+    <t>审批状态</t>
+  </si>
+  <si>
+    <t>INV001</t>
+  </si>
+  <si>
+    <t>Seller A</t>
+  </si>
+  <si>
+    <t>Zhejiang University</t>
+  </si>
+  <si>
+    <t>2015-05-10</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>INV002</t>
+  </si>
+  <si>
+    <t>Seller B</t>
+  </si>
+  <si>
+    <t>Shenzhen Purchasing Network Co., Ltd.</t>
+  </si>
+  <si>
+    <t>2016-06-12</t>
+  </si>
+  <si>
+    <t>INV003</t>
+  </si>
+  <si>
+    <t>Seller C</t>
+  </si>
+  <si>
+    <t>Company X</t>
+  </si>
+  <si>
+    <t>2017-08-15</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>交易总额</t>
+  </si>
+  <si>
+    <t>交易次数</t>
+  </si>
+  <si>
+    <t>客户分类</t>
+  </si>
+  <si>
+    <t>卖方A</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>卖方B</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>交易频度</t>
+  </si>
+  <si>
+    <t>买方A</t>
+  </si>
+  <si>
+    <t>买方B</t>
+  </si>
+  <si>
+    <t>交易关系汇总</t>
+  </si>
+  <si>
+    <t>大客户</t>
+  </si>
+  <si>
+    <t>Client1</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>Client1, Client1, Client1</t>
+  </si>
+  <si>
+    <t>一般客户</t>
+  </si>
+  <si>
+    <t>重要供应商</t>
+  </si>
+  <si>
+    <t>Supplier1</t>
+  </si>
+  <si>
+    <t>供应商</t>
+  </si>
+  <si>
+    <t>Supplier1, Supplier1, Supplier1</t>
+  </si>
+  <si>
+    <t>一般供应商</t>
+  </si>
+  <si>
+    <t>当前购买量最大的3个买方</t>
+  </si>
+  <si>
+    <t>当前卖出量最大的3个卖方</t>
+  </si>
+  <si>
+    <t>最频繁交易关系</t>
+  </si>
+  <si>
+    <t>客户：Client1 - 供应商：Supplier1</t>
+  </si>
+  <si>
+    <t>发票审批状态汇总</t>
+  </si>
+  <si>
+    <t>总发票数量</t>
+  </si>
+  <si>
+    <t>通过发票数量</t>
+  </si>
+  <si>
+    <t>不通过发票数量</t>
+  </si>
+  <si>
+    <t>转人工审批发票数量</t>
   </si>
   <si>
     <t>审批状态比例</t>
   </si>
   <si>
-    <t>当前交易量最大的Top K个交易方</t>
+    <t>70% / 20% / 10%</t>
+  </si>
+  <si>
+    <t>发票最大金额</t>
+  </si>
+  <si>
+    <t>发票最小金额</t>
+  </si>
+  <si>
+    <t>发票平均金额</t>
+  </si>
+  <si>
+    <t>最多转人工审批原因</t>
+  </si>
+  <si>
+    <t>Low Image Recognition</t>
+  </si>
+  <si>
+    <t>重复发票张数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -67,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,18 +243,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -109,44 +295,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -173,15 +359,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -208,7 +393,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -220,180 +404,569 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>2500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>3000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1200</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>750</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/flows/work/.xlsx/发票自动化处理统计报表.xlsx
+++ b/flows/work/.xlsx/发票自动化处理统计报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\flows\work\.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB2524C-D995-46FE-BF0A-4137E17AC53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67852F4B-F541-4CAC-99EA-8EF47539D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1380" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="1035" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="发票数据详情" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>发票号码</t>
   </si>
@@ -44,6 +44,12 @@
     <t>审批状态</t>
   </si>
   <si>
+    <t>转人工审批原因</t>
+  </si>
+  <si>
+    <t>图片链接</t>
+  </si>
+  <si>
     <t>INV001</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
     <t>Approved</t>
   </si>
   <si>
+    <t>https://www.example.com/invoice1.jpg</t>
+  </si>
+  <si>
     <t>INV002</t>
   </si>
   <si>
@@ -71,6 +80,12 @@
     <t>2016-06-12</t>
   </si>
   <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>https://www.example.com/invoice2.jpg</t>
+  </si>
+  <si>
     <t>INV003</t>
   </si>
   <si>
@@ -83,7 +98,13 @@
     <t>2017-08-15</t>
   </si>
   <si>
-    <t>Rejected</t>
+    <t>Manual Review</t>
+  </si>
+  <si>
+    <t>Low Image Recognition</t>
+  </si>
+  <si>
+    <t>https://www.example.com/invoice3.jpg</t>
   </si>
   <si>
     <t>交易总额</t>
@@ -192,9 +213,6 @@
   </si>
   <si>
     <t>最多转人工审批原因</t>
-  </si>
-  <si>
-    <t>Low Image Recognition</t>
   </si>
   <si>
     <t>重复发票张数</t>
@@ -216,8 +234,6 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -569,13 +585,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,65 +616,83 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1500</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>2500</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>3000</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -674,18 +714,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -694,12 +734,12 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>500</v>
@@ -708,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -730,18 +770,18 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1200</v>
@@ -750,12 +790,12 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>750</v>
@@ -764,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -783,80 +823,80 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -869,25 +909,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -895,7 +929,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>700</v>
@@ -903,7 +937,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -911,7 +945,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -919,15 +953,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>50000</v>
@@ -935,7 +969,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -943,7 +977,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>1500</v>
@@ -951,15 +985,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>1</v>

--- a/flows/work/.xlsx/发票自动化处理统计报表.xlsx
+++ b/flows/work/.xlsx/发票自动化处理统计报表.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="z" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="发票数据详情" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="卖方数据详情" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="买方数据详情" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="发票数据详情" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="卖方数据详情" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="买方数据详情" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="交易关系汇总" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="发票审批状态汇总" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,25 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G322"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,1608 +475,5403 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15357899</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>省地方税务局</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2015-08-11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15361143</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>浙江省地方税务局</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2015-08-11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06553995</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>杭州联迅生物科技有限公司</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1572</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2015-07-28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24756777</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>江大学</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>收关市海机场(苏))有限司</t>
+        </is>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5050</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2015-09-01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>00561062</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>上海杰肽生物科技有限公司</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上海志胜生物科技有限公司帐</t>
+        </is>
+      </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2015-03-29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12271524</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12270242</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1417</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12270859</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12270231</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13108068</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13108052</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13108055</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13108054</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13108051</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13108062</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13108072</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13108070</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12270837</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D19" t="n">
-        <v>200</v>
+        <v>3495</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13108067</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D20" t="n">
-        <v>300</v>
+        <v>3495</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13108053</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>13108060</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>13108061</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>13108064</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>13108045</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12270253</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12270251</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12270281</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12269568</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12270273</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12270260</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12270291</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>12270288</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12270292</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>13108043</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D35" t="n">
-        <v>1572</v>
+        <v>3495</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>13108066</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>12271510</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12271504</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>12270855</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>12271512</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12271516</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>12270790</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12270846</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>12270843</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>12263918</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>12263872</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>12263891</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>12186138</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>12270860</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>13102225</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>13102253</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>12185951</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>12186177</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>13102249</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>12185959</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>12264962</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>12265630</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>12264951</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>12271530</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>12265617</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>12264950</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>12187521</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D62" t="n">
-        <v>5050</v>
+        <v>699</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>12265706</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>12187564</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>12265733</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>12187097</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>12187092</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>12187096</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>12265619</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>12187546</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>12187055</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>12187081</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2016-06-08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>12269573</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>12269535</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>12269539</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>12269550</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>12269581</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>12271544</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>12270853</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>12270836</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>12271503</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>12271502</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>12271509</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>12269554</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>12269553</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>12271518</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D86" t="n">
-        <v>1100</v>
+        <v>3495</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>12271519</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>12271543</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>12271501</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>12270827</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>12271515</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>12283212</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>2998</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2016-06-18</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>12283615</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>2998</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2016-06-18</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>12283749</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>2998</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2016-06-18</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>13118552</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>2998</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2016-06-18</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>12283226</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>2998</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2016-06-18</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>13118172</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>2998</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2016-06-18</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>12271542</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>13118772</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>2998</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2016-06-18</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>12270275</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>7485</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>12270249</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>7485</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>12270266</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>7495</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>12270237</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>7485</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>12270245</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>7485</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>12269582</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>7485</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>12270257</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>7495</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>12270238</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>7495</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>12269558</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>12271541</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>12270258</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>7485</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>12270808</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>7485</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>12271540</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>12269549</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>12270840</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>12270841</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>12270830</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>12270871</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>12270791</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>12270793</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>12269577</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>12270803</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>12269556</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>12269562</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>12269563</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>12269557</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>12270789</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>12269560</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>12271500</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>12271523</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>12270870</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>12270847</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>12271538</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D132" t="n">
-        <v>450</v>
+        <v>3495</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>12271533</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>12271522</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>12271513</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>12270232</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>12270259</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>12270252</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>12270262</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>12270824</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>3495</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>12270234</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D141" t="n">
         <v>3495</v>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>12270294</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D142" t="n">
-        <v>1417</v>
+        <v>3495</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>12270254</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D143" t="n">
         <v>3495</v>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>12271534</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D144" t="n">
         <v>3495</v>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>12271536</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D145" t="n">
         <v>3495</v>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>12269534</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D146" t="n">
         <v>3495</v>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>12269543</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D147" t="n">
         <v>3495</v>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>12269540</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D148" t="n">
         <v>3495</v>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>12270849</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D149" t="n">
         <v>3495</v>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>12271517</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D150" t="n">
         <v>3495</v>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>12270812</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D151" t="n">
         <v>3495</v>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>12269552</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D152" t="n">
         <v>3495</v>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>12271521</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D153" t="n">
         <v>3495</v>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>12271528</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D154" t="n">
         <v>3495</v>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>12271525</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D155" t="n">
         <v>3495</v>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>12269579</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D156" t="n">
         <v>3495</v>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>12269578</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D157" t="n">
         <v>3495</v>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>12269576</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D158" t="n">
         <v>3495</v>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>12270862</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D159" t="n">
         <v>3495</v>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>12269555</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D160" t="n">
         <v>3495</v>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>12269586</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D161" t="n">
         <v>3495</v>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>12269571</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D162" t="n">
         <v>3495</v>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>12270287</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D163" t="n">
         <v>3495</v>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>13108049</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D164" t="n">
         <v>3495</v>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>12270285</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D165" t="n">
         <v>3495</v>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>12271507</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D166" t="n">
         <v>3495</v>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>12270864</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D167" t="n">
         <v>3495</v>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>12269587</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D168" t="n">
         <v>3495</v>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>12270283</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D169" t="n">
         <v>3495</v>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>13108065</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D170" t="n">
         <v>3495</v>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>12270278</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D171" t="n">
         <v>3495</v>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>12270250</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D172" t="n">
         <v>3495</v>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>12270268</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D173" t="n">
         <v>3495</v>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>12270271</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D174" t="n">
         <v>3495</v>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>12270261</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D175" t="n">
         <v>3495</v>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>12270272</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D176" t="n">
         <v>3495</v>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>12270265</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D177" t="n">
         <v>3495</v>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>13108069</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D178" t="n">
         <v>3495</v>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>13108073</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D179" t="n">
-        <v>699</v>
+        <v>3495</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>13108048</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D180" t="n">
-        <v>699</v>
+        <v>3495</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>12270239</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
       <c r="D181" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="D182" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="D183" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="D184" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="D185" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="D186" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="D187" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="D188" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="D189" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="D190" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="D191" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="D192" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="D193" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="D194" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="D195" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="D196" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="D197" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="D198" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="D199" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="D200" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="D201" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="D202" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="D203" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="D204" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="D205" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="D206" t="n">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="D207" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="D208" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="D209" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="D210" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="D211" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="D212" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="D213" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="D214" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="D215" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="D216" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="D217" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="D218" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="D219" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="D220" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="D221" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="D222" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="D223" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="D224" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="D225" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="D226" t="n">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="D227" t="n">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="D228" t="n">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="D229" t="n">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="D230" t="n">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="D231" t="n">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="D232" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="D233" t="n">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="D234" t="n">
-        <v>7485</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="D235" t="n">
-        <v>7485</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="D236" t="n">
-        <v>7495</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="D237" t="n">
-        <v>7485</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="D238" t="n">
-        <v>7485</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="D239" t="n">
-        <v>7485</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="D240" t="n">
-        <v>7495</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="D241" t="n">
-        <v>7495</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="D242" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="D243" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="D244" t="n">
-        <v>7485</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="D245" t="n">
-        <v>7485</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="D246" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="D247" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="D248" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="D249" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="D250" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="D251" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="D252" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="D253" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="D254" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="D255" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="D256" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="D257" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="D258" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="D259" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="D260" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="D261" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="D262" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="D263" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="D264" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="D265" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="D266" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="D267" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="D268" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="D269" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="D270" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="D271" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="D272" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="D273" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="D274" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="D275" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="D276" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="D277" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="D278" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="D279" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="D280" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="D281" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="D282" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="D283" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="D284" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="D285" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="D286" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="D287" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="D288" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="D289" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="D290" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="D291" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="D292" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="D293" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="D294" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="D295" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="D296" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="D297" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="D298" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="D299" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="D300" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="D301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="D302" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="D303" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="D304" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="D305" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="D306" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="D307" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="D308" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="D309" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="D310" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="D311" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="D312" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="D313" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="D314" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="D315" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="D316" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="D317" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="D318" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="D319" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="D320" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="D321" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="D322" t="n">
-        <v>3495</v>
+        <v>3495</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +5879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2268,7 +6046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2397,4 +6175,270 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>交易关系汇总</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>客户</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>收关市海机场(苏))有限司, 上海志胜生物科技有限公司帐</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>重要供应商</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>省地方税务局</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大客户</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>最频繁交易关系</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>客户：深圳市购机汇网络有限公司 - 供应商：广州晶东贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>一般客户</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>浙江大学医学院附属邵逸夫医院, 深圳市购机汇网络有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>一般供应商</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>北京诺诚嘉信仪器有限公司, 广州晶东贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>供应商</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>浙江省地方税务局, 杭州联迅生物科技有限公司, 江大学, 上海杰肽生物科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>当前购买量最大的3个买方</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>深圳市购机汇网络有限公司, 收关市海机场(苏))有限司, 浙江大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>当前卖出量最大的3个卖方</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>广州晶东贸易有限公司, 江大学, 杭州联迅生物科技有限公司</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>发票审批状态汇总</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>审批状态比例</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.25% / 54.83% / 43.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>通过发票数量</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>发票平均金额</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>重复发票张数</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>转人工审批发票数量</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>发票最大金额</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7495</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>发票最小金额</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>最多转人工审批原因</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>不通过发票数量</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>总发票数量</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/flows/work/.xlsx/发票自动化处理统计报表.xlsx
+++ b/flows/work/.xlsx/发票自动化处理统计报表.xlsx
@@ -6202,60 +6202,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>客户</t>
+          <t>大客户</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>收关市海机场(苏))有限司, 上海志胜生物科技有限公司帐</t>
+          <t>浙江大学</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>重要供应商</t>
+          <t>客户</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>省地方税务局</t>
+          <t>收关市海机场(苏))有限司, 上海志胜生物科技有限公司帐</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大客户</t>
+          <t>一般客户</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>浙江大学</t>
+          <t>浙江大学医学院附属邵逸夫医院, 深圳市购机汇网络有限公司</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>最频繁交易关系</t>
+          <t>重要供应商</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>客户：深圳市购机汇网络有限公司 - 供应商：广州晶东贸易有限公司</t>
+          <t>省地方税务局</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>一般客户</t>
+          <t>供应商</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>浙江大学医学院附属邵逸夫医院, 深圳市购机汇网络有限公司</t>
+          <t>浙江省地方税务局, 杭州联迅生物科技有限公司, 江大学, 上海杰肽生物科技有限公司</t>
         </is>
       </c>
     </row>
@@ -6274,36 +6274,36 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>当前购买量最大的3个买方</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>浙江省地方税务局, 杭州联迅生物科技有限公司, 江大学, 上海杰肽生物科技有限公司</t>
+          <t>深圳市购机汇网络有限公司, 收关市海机场(苏))有限司, 浙江大学</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>当前购买量最大的3个买方</t>
+          <t>当前卖出量最大的3个卖方</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>深圳市购机汇网络有限公司, 收关市海机场(苏))有限司, 浙江大学</t>
+          <t>广州晶东贸易有限公司, 江大学, 杭州联迅生物科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>当前卖出量最大的3个卖方</t>
+          <t>最频繁交易关系</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>广州晶东贸易有限公司, 江大学, 杭州联迅生物科技有限公司</t>
+          <t>客户：深圳市购机汇网络有限公司 - 供应商：广州晶东贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -6337,13 +6337,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>审批状态比例</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.25% / 54.83% / 43.93%</t>
-        </is>
+          <t>总发票数量</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="3">
@@ -6359,31 +6357,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>发票平均金额</t>
+          <t>不通过发票数量</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3215</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>重复发票张数</t>
+          <t>转人工审批发票数量</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>转人工审批发票数量</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>141</v>
+          <t>审批状态比例</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.25% / 54.83% / 43.93%</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -6409,33 +6409,33 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>最多转人工审批原因</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>无法识别发票 错误码：{10909} 人工审批</t>
-        </is>
+          <t>发票平均金额</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>不通过发票数量</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>176</v>
+          <t>最多转人工审批原因</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>无法识别发票 错误码：{10909} 人工审批</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>总发票数量</t>
+          <t>重复发票张数</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/flows/work/.xlsx/发票自动化处理统计报表.xlsx
+++ b/flows/work/.xlsx/发票自动化处理统计报表.xlsx
@@ -503,6 +503,11 @@
           <t>通过</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d60c0079-dd28-41cf-84cb-e37e25c1f4c8_a144.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -533,6 +538,11 @@
           <t>通过</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b66af47a-4c49-4750-a84e-3c7a77e2c2af_a148.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -563,6 +573,11 @@
           <t>通过</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d15bdf20-eb57-467d-bbef-0c1485fdcd3c_a19.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -593,6 +608,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/64e402d5-0203-4015-8db8-eed88ec1ac38_a241.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -623,6 +643,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/628e41c4-cef7-428c-92ef-0987abf758cd_a301.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -653,6 +678,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4dcc0b38-cf39-4f03-a229-d1580e1f4b71_b0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -683,6 +713,11 @@
           <t>通过</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7a19a44c-b200-4347-a35e-f84a4a2023b0_b1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -713,6 +748,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/43c5c689-dcb6-469a-91df-249c9577f3fd_b10.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -743,6 +783,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/06424882-e980-4f1c-9320-0980af462e3f_b100.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -773,6 +818,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b8ba71cf-1296-4980-9146-f638756b952e_b101.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -803,6 +853,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6c99c98c-778a-4cc1-8f78-838a65631d8c_b102.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -833,6 +888,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3aa02877-4c17-4c84-ad47-6f40bf3548cc_b103.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -863,6 +923,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/dc6c576a-73b4-4e62-9cb6-cd6c81a63723_b104.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -893,6 +958,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a6dd6db3-0599-4800-9c5e-84c416ee80d2_b105.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -923,6 +993,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4ee85f84-d1fe-437e-9393-31bf037a8764_b107.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -953,6 +1028,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/cd01f900-6555-4c06-8b4e-faba336a58a8_b108.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -983,6 +1063,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/41165308-693a-4f03-be42-8184eb8616cb_b109.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1013,6 +1098,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ce783c0e-0cf9-452a-b497-14e07d445ae7_b11.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1043,6 +1133,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/99337f55-ac1b-4142-b455-90eff61f6b5b_b110.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1073,6 +1168,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c7b7f7b1-d12f-431d-b7d8-c4b11feed32a_b111.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1103,6 +1203,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/68db3869-bb2f-45f8-aff9-9a25eae24b60_b112.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1133,6 +1238,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/1a3904af-0f28-4ede-8017-3b2d7599fbe7_b113.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1163,6 +1273,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/98184e5b-d530-4a05-8507-7e085f4b1799_b114.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1193,6 +1308,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9a16f698-6caf-4bdd-8ffc-65b0f0fe9e78_b115.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1223,6 +1343,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d50d2293-0bd6-4c18-9339-3cbf0ed86c39_b117.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1253,6 +1378,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/201ec15c-3e14-4cc9-b232-d4d8a0a12c0f_b118.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1283,6 +1413,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/238019ce-1ab3-44fe-8589-921cd4365a89_b119.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1313,6 +1448,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/61e3f9d7-6c7f-4999-9cc7-ecfa80537474_b12.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1343,6 +1483,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/cabb66c6-19c0-4113-81b4-994d048689c1_b120.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1373,6 +1518,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2c47c9b6-11d7-4b09-8b5a-8bcb1fb395f0_b121.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1403,6 +1553,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/df4c0c9b-f779-464c-8126-99fe0e05d538_b122.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1433,6 +1588,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/218b4196-03fa-4206-ac03-30678951ed1c_b123.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1463,6 +1623,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/30854201-5010-4826-a070-bb1351431ada_b124.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1493,6 +1658,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6878a4a7-b2ae-4900-9471-9ba47631874c_b125.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1523,6 +1693,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d1f8e0c8-6e77-436f-929e-7efbdc77c18c_b127.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1553,6 +1728,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/54ee2f28-70f2-4abd-b5c4-8044e9560634_b128.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1583,6 +1763,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/337e04ff-cc4b-423c-bdca-d3b2132ba3c6_b129.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1613,6 +1798,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7fa8d185-2af2-475b-9eeb-ce4d6fcdbaab_b13.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1643,6 +1833,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/17325393-62e2-46de-863c-a97baa889691_b130.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1673,6 +1868,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2d5afca7-d838-4f25-9d73-4ef569f622c6_b131.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1703,6 +1903,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/439bce01-06ec-4755-8559-fab63f6e7ce6_b132.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1733,6 +1938,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d5b1c688-c079-4fce-a156-e63023f7f472_b133.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1763,6 +1973,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/26701334-feac-4b60-89fe-14f3363f5ba1_b134.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1793,6 +2008,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/70feecc6-7809-47f8-9ef3-42109cc3be50_b135.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1823,6 +2043,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f2ee43f6-642c-4e97-8b96-19891fad9481_b137.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1853,6 +2078,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f6cac83e-7bbd-42d5-b0ee-cc12faf12bdb_b138.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1883,6 +2113,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e44e5ec4-5ece-4431-9ad7-f1dcda146e97_b139.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1913,6 +2148,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8300cbec-eaaa-40af-a373-168fa4a9052c_b14.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1943,6 +2183,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9b80d583-6e53-4e7d-b88a-04379488443d_b140.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1973,6 +2218,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/198fdc6b-5998-46cb-83f6-708217f8ce7d_b141.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2003,6 +2253,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4b54b742-6111-4bc5-8560-e8844aa98777_b142.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2033,6 +2288,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/27380800-d898-4808-afb2-1b57a6755f9b_b143.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2063,6 +2323,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/caf270f1-3b81-4215-bb74-682947bef52b_b144.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2093,6 +2358,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/1e239083-ad83-4ac3-b9ab-5246d2bfb36c_b145.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2123,6 +2393,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3fcecfb9-18bc-49be-be23-3961f14ac6d0_b147.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2153,6 +2428,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6d6fadba-ee88-4916-b147-a3918c063074_b148.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2183,6 +2463,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/36da1c4d-76df-46ee-b110-1fb960dd2da9_b149.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2213,6 +2498,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/bf383029-1d3f-4bfc-8d6d-cb4f17d27320_b15.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2243,6 +2533,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4a19075b-cae5-4f69-bee8-acbcb1e693ed_b150.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2273,6 +2568,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/348be7a7-5346-49ea-a561-828cddcccd1b_b151.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2303,6 +2603,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fd81f3e7-8248-4258-adce-8e2b5b816b5a_b152.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2333,6 +2638,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c111adc4-c471-4d15-845f-78c68e1d278d_b153.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2363,6 +2673,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7e25a2a7-c486-472b-a377-3b3670fc2035_b154.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2393,6 +2708,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/20a7d19c-56fc-4475-9e35-78079516404e_b155.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2423,6 +2743,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/20a09d4a-8c7b-4b75-9e7e-5c43c1f23f11_b157.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2453,6 +2778,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5d7e06f2-a55f-449c-9438-96baca58ec7d_b158.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2483,6 +2813,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e609c7d6-b6cc-4e9b-b23f-bd01aeb9c927_b159.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2513,6 +2848,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/22e074a3-0641-41eb-bb7c-aa755e63c2d8_b160.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2543,6 +2883,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/47e823b2-5bc5-4b02-8671-8c0888f2401a_b161.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2573,6 +2918,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6a7cc3ae-8fb5-42e3-9100-052573780895_b162.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2603,6 +2953,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4ccfb649-e3ee-4183-a32c-cf6d8fe887d2_b163.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2633,6 +2988,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e8800c43-4cab-48c0-ab33-ecf59404d94a_b164.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2663,6 +3023,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/adb1e737-1f74-47d0-be19-86a37e50c511_b165.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2693,6 +3058,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/56d39d97-83c1-401c-a138-434ba1a109a5_b167.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2723,6 +3093,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fc7bfb0a-bdba-435b-8190-f90bdfc9a468_b168.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2753,6 +3128,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7d8caf3e-f9d6-4b07-ad9f-6030a9338ebe_b169.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2783,6 +3163,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8dd6e960-d8bf-4a72-8657-cacd6cabd0ad_b17.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2813,6 +3198,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e743c038-a366-4bdc-8faa-da58827a5fdf_b170.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2843,6 +3233,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3e063667-8f2a-45b1-9fec-be0eb5c69f1b_b171.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2873,6 +3268,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/913ec67b-5319-4a97-8f21-24dedc88b524_b172.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2903,6 +3303,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a8eb9957-808a-419e-b149-e6501c68c944_b173.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2933,6 +3338,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7eae8c45-80d0-422f-ad90-cbb7fbd531c2_b174.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2963,6 +3373,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/20b06a47-4d9e-44e5-9801-9bb0d81a6b41_b175.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2993,6 +3408,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/348c1089-e348-4e07-8c58-09eca17b58c7_b177.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3023,6 +3443,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3f2feaee-0344-43e8-8ddc-cd2d3ef3e72f_b178.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3053,6 +3478,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/bf3ac07c-9a05-4c53-8785-9011f4c1f8ae_b179.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3083,6 +3513,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8ceeeb70-a859-4d1e-9e14-5dc4601caa1e_b18.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3113,6 +3548,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a5128944-cf2e-4fe5-a9dc-2dffe419bd3c_b180.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3143,6 +3583,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/27d8b020-d5e2-44a0-bd7a-5b464b11f673_b181.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3173,6 +3618,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2c8a2911-2fd7-4d62-917c-44c3449fb9b4_b182.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3203,6 +3653,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4de07240-807d-466c-8a5f-e1e20fd16420_b183.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3233,6 +3688,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f45fd5b5-d7e7-4d3d-b9a0-48b6fa56e7e3_b184.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3263,6 +3723,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/12820cd7-c44c-4232-aaa1-16f5596b97af_b185.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3293,6 +3758,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/23da5ae7-ac0b-4254-890a-39d1e34ae080_b187.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3323,6 +3793,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/1e1f8874-3d8d-4aaf-aeef-662b6b40190c_b188.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3353,6 +3828,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f5732c20-96e1-4c5c-995c-dc3348371300_b189.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3383,6 +3863,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a875ebb8-ff16-4508-8a47-dbfc1e310836_b19.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3413,6 +3898,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/dc4639f4-3d1d-4dc4-b2c9-ef218077b02c_b190.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3443,6 +3933,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2e452053-acb1-49d0-8839-3a4353fb1543_b191.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3473,6 +3968,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/464eb0a5-82ea-4e0d-b3b1-fdbd452a85e0_b192.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3503,6 +4003,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e7864f1d-4634-413a-8ca2-3c11af5ad3a6_b193.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3533,6 +4038,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9c6664d2-5d3c-4395-a0cb-ce136d7ec6b7_b194.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3563,6 +4073,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/08c531de-4869-4f31-83e2-8c604615a9c4_b195.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3593,6 +4108,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4a4619c6-c82c-4cfc-97a8-9480a9a3c8e0_b197.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3623,6 +4143,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8641fb78-baad-49b8-aebe-b1675ddc8cb8_b198.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3653,6 +4178,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b44f346e-2f54-45ea-bb52-d4bda4695c97_b199.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3683,6 +4213,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/28e792e6-f74f-48d8-b48e-cbde07ee9f77_b2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3713,6 +4248,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9a99e073-5a3f-4cc1-95a8-077c695163bb_b20.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3743,6 +4283,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ab7eea44-6a56-4fa3-b579-f4986513b582_b200.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3773,6 +4318,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5b73e753-e1ed-4eac-9521-9b93c8633b04_b201.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3803,6 +4353,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e10e0264-2932-47f0-bf52-c5b946a180ac_b21.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3833,6 +4388,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/99441061-dfec-4372-90b7-120e3d63499e_b22.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3863,6 +4423,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9bea0c0c-3450-4be4-b69b-1721c54b6c84_b23.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3893,6 +4458,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3cde4ea1-b35a-4550-a8fd-c000770f504b_b24.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3923,6 +4493,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a568e01d-3621-456b-8f43-9c5bf969ca72_b25.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3953,6 +4528,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/08cfcce5-f0f1-49bc-bd94-e438e81064e0_b27.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3983,6 +4563,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fa8cea3e-9b14-45c4-9f1a-cf315d18f70f_b28.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4013,6 +4598,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/bb86b6ec-a1e3-4907-bcc2-0e139ae62b8f_b29.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4043,6 +4633,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d3748199-0fbe-4cbe-8396-a87d9b94f0e3_b3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4073,6 +4668,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/78feea3b-4e3d-47c1-9c0b-b340ee6fd699_b30.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4103,6 +4703,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/87357c1f-a850-4961-9b05-fb5d66c09f38_b31.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4133,6 +4738,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/37faee97-4754-4efb-8762-731fcf7b2bc5_b32.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4163,6 +4773,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/bb114ef9-065d-427e-adbe-2d37da24d14e_b33.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4193,6 +4808,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4b21e91d-94e5-44a9-8b5c-8de76d4c8b84_b34.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4223,6 +4843,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/671cc79b-c5c5-45c2-86fa-69e316971264_b35.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4253,6 +4878,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/cc20a32f-3e8d-48b0-ace5-20558743e965_b37.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4283,6 +4913,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e617d2dd-da77-4132-b775-e0146575afa1_b38.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4313,6 +4948,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7de5032c-3bda-4c15-a496-85a92b83a7ad_b39.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4343,6 +4983,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a5f53a3d-d64e-4910-af0f-697e12d00f56_b4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4373,6 +5018,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/dd9cdf5c-4672-4edb-8f6b-34e9c206a211_b40.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4403,6 +5053,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c0cfe879-067d-49fa-880f-c54e6950ef44_b41.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4433,6 +5088,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fce93a0c-386d-42a4-94fd-441efc967498_b42.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4463,6 +5123,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/14052083-b16e-4acd-bc61-c4cb35df8f56_b43.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4493,6 +5158,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/489cd62c-b44a-44d3-9692-48e31303cd05_b44.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4523,6 +5193,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5138aeca-1e87-449e-9e85-fa93bd753d69_b45.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4553,6 +5228,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/eddcc725-b1cc-4d54-b220-34cf03d084bd_b47.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4583,6 +5263,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4db3660b-c278-4bd6-be7b-80e389ae3c35_b48.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4613,6 +5298,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/50defd45-231e-48aa-bdd5-b31aa28caaba_b49.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4643,6 +5333,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/057238bd-f55b-453d-aca7-5838dbc3407c_b5.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4673,6 +5368,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3a730976-8f7c-4a2a-9033-7760e6df0d94_b50.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4703,6 +5403,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2904cac0-138d-40dd-878b-afd1c7aea129_b51.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4733,6 +5438,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b410a353-a1cc-40e5-9ea5-5576ae4f4149_b52.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4763,6 +5473,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3c78167e-2345-4353-83fd-8fdc8424611f_b53.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4793,6 +5508,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ea9f9f06-a5a7-4e1e-911f-450974942b26_b54.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4823,6 +5543,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/1e0a60a8-05b3-4621-b46b-1b47e3c3eeff_b55.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4853,6 +5578,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6f6a5071-1ee0-4251-8808-6a3530b21e41_b57.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4883,6 +5613,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/38ec1772-4c7e-400e-912d-0b694dc809da_b58.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4913,6 +5648,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/87e38325-5498-41e5-bfa5-46622bcdedf6_b59.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4943,6 +5683,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/209c3a08-de00-4435-a517-e0b48e6a9741_b60.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4973,6 +5718,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ac535fe7-436e-40e4-907e-8c1011435c6c_b61.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5003,6 +5753,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/177a9e98-3f1d-4e76-818b-ab6f475c4f62_b62.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5033,6 +5788,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/07dce926-7f55-4d3e-b22f-5e320a6ef2d7_b63.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5063,6 +5823,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d5c7a3ca-7408-4c2b-89f1-47482d5cd18f_b64.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5093,6 +5858,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6f7e6347-6587-4e7f-91d6-120169f47793_b65.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5123,6 +5893,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/da4f6e98-edb4-45a6-acbf-5025eeb6df92_b67.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5153,6 +5928,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5ca78706-52cb-4bc4-9843-574a1ae2d693_b68.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5183,6 +5963,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8f0e25bd-beb2-49af-8dc8-ae5a687905b4_b69.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5213,6 +5998,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8d658043-b7fc-42b1-b701-26668c363acd_b7.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5243,6 +6033,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ca2e5d2b-1b8a-4b25-9ef0-abd305ed7006_b70.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5273,6 +6068,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/1faa4098-6bca-4cff-bd15-9e47423ef745_b71.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5303,6 +6103,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6c647203-91da-465b-ac67-5a480408611f_b72.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5333,6 +6138,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/62f8e094-8172-419b-9bd8-b2cd26033ff9_b74.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5363,6 +6173,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f8caf265-2221-421c-b15a-b5d647f724d1_b75.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5393,6 +6208,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5e0868f3-e437-4836-9c7e-320a3cbdfd69_b77.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5423,6 +6243,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fbec01db-3ae9-47a1-a0e0-7fa232eecb48_b79.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5453,6 +6278,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/19de6db9-a4aa-4058-9377-204f2c8564ef_b8.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5483,6 +6313,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5a286126-0cb4-4bf8-b187-dbf513e4c5f8_b80.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5513,6 +6348,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7faef0a0-7d78-4c14-8bad-6c5514bd5612_b82.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5543,6 +6383,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/99877d98-2f68-4b03-a680-96b447839e45_b83.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5573,6 +6418,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/689a6639-8667-4d89-bc77-ad71fada8eb7_b84.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5603,6 +6453,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f0f1d575-f3d6-4ef1-a1c8-20967ac478ca_b87.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5633,6 +6488,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2513d024-89c2-4fbf-9ed7-b1ef672de23b_b88.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5663,6 +6523,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b65c990d-3987-458f-af36-30eac06316df_b89.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5693,6 +6558,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/97c4d1eb-2f03-484a-a13a-0dbbd51cbc64_b90.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5723,6 +6593,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7e0a4b00-4267-45de-8c8f-bdf11ec98c0d_b91.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5753,6 +6628,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/bc5624b7-5f09-43bc-8cd2-8d90deca9407_b92.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5783,6 +6663,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fc126747-de5b-4307-ad6c-2d817f193f76_b94.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5813,6 +6698,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4d01ca8f-7669-41d2-95e6-8a17765e94eb_b95.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5843,6 +6733,11 @@
           <t>未通过</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b7bbabfc-5232-4f89-ab39-2a37ab38777d_b97.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5871,6 +6766,11 @@
       <c r="F181" t="inlineStr">
         <is>
           <t>未通过</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3fcd6d4e-9f1d-446f-98eb-7d61ec2c68e8_b99.jpg</t>
         </is>
       </c>
     </row>
